--- a/teaching/traditional_assets/database/data/singapore/singapore_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/singapore/singapore_financial_svcs_non_bank_insurance.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.06815000000000002</v>
+        <v>0.0227</v>
       </c>
       <c r="E2">
-        <v>0.10065</v>
+        <v>0.0641</v>
       </c>
       <c r="F2">
-        <v>0.044</v>
+        <v>0.035</v>
       </c>
       <c r="G2">
-        <v>0.4058898160600821</v>
+        <v>0.4748203707970797</v>
       </c>
       <c r="H2">
-        <v>0.3259234642392898</v>
+        <v>0.3908167225785651</v>
       </c>
       <c r="I2">
-        <v>0.3504306180263778</v>
+        <v>0.380391176384875</v>
       </c>
       <c r="J2">
-        <v>0.310714088411987</v>
+        <v>0.3263010668747431</v>
       </c>
       <c r="K2">
-        <v>412.42</v>
+        <v>442.05</v>
       </c>
       <c r="L2">
-        <v>0.3569234071204671</v>
+        <v>0.3872946672402419</v>
       </c>
       <c r="M2">
-        <v>355.881</v>
+        <v>270.799</v>
       </c>
       <c r="N2">
-        <v>0.04179489227170127</v>
+        <v>0.03064741199305111</v>
       </c>
       <c r="O2">
-        <v>0.8629091702633238</v>
+        <v>0.6125981223843456</v>
       </c>
       <c r="P2">
-        <v>351.211</v>
+        <v>258.554</v>
       </c>
       <c r="Q2">
-        <v>0.04124644448463524</v>
+        <v>0.02926159609323276</v>
       </c>
       <c r="R2">
-        <v>0.8515857620871926</v>
+        <v>0.5848976360140257</v>
       </c>
       <c r="S2">
-        <v>4.670000000000016</v>
+        <v>12.24499999999999</v>
       </c>
       <c r="T2">
-        <v>0.01312236393625964</v>
+        <v>0.04521803994844881</v>
       </c>
       <c r="U2">
-        <v>1572.39</v>
+        <v>1772.05</v>
       </c>
       <c r="V2">
-        <v>0.1846624873457711</v>
+        <v>0.20055002574709</v>
       </c>
       <c r="W2">
-        <v>0.05691292794359712</v>
+        <v>0.04747659051096804</v>
       </c>
       <c r="X2">
-        <v>0.02728948070882773</v>
+        <v>0.01719835927404812</v>
       </c>
       <c r="Y2">
-        <v>0.02962344723476939</v>
+        <v>0.03027823123691992</v>
       </c>
       <c r="Z2">
-        <v>0.732002853007944</v>
+        <v>0.6006703073135556</v>
       </c>
       <c r="AA2">
-        <v>0.002542995000793384</v>
+        <v>0.0002198365042535089</v>
       </c>
       <c r="AB2">
-        <v>0.02711031475702536</v>
+        <v>0.01720618841090918</v>
       </c>
       <c r="AC2">
-        <v>-0.02451902683059973</v>
+        <v>-0.01686535001860963</v>
       </c>
       <c r="AD2">
-        <v>594.975</v>
+        <v>767.876</v>
       </c>
       <c r="AE2">
-        <v>76.90663449586381</v>
+        <v>0.2324974450388761</v>
       </c>
       <c r="AF2">
-        <v>671.8816344958639</v>
+        <v>768.1084974450389</v>
       </c>
       <c r="AG2">
-        <v>-900.508365504136</v>
+        <v>-1003.941502554961</v>
       </c>
       <c r="AH2">
-        <v>0.07313537382428281</v>
+        <v>0.07997749052126017</v>
       </c>
       <c r="AI2">
-        <v>0.176070458102356</v>
+        <v>0.2001268327761853</v>
       </c>
       <c r="AJ2">
-        <v>-0.118263372596917</v>
+        <v>-0.1281844245805488</v>
       </c>
       <c r="AK2">
-        <v>-0.4013691046349799</v>
+        <v>-0.4859211410502029</v>
       </c>
       <c r="AL2">
-        <v>11.496</v>
+        <v>5.125</v>
       </c>
       <c r="AM2">
-        <v>1.459000000000001</v>
+        <v>-5.301</v>
       </c>
       <c r="AN2">
-        <v>1.395020855851948</v>
+        <v>1.692001577693703</v>
       </c>
       <c r="AO2">
-        <v>33.88135003479471</v>
+        <v>84.6790243902439</v>
       </c>
       <c r="AP2">
-        <v>-2.111396194373576</v>
+        <v>-2.212167858137486</v>
       </c>
       <c r="AQ2">
-        <v>266.963673749143</v>
+        <v>-81.86757215619693</v>
       </c>
     </row>
     <row r="3">
@@ -728,124 +728,124 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.07150000000000001</v>
+        <v>0.0622</v>
       </c>
       <c r="E3">
-        <v>0.0626</v>
+        <v>0.0624</v>
       </c>
       <c r="F3">
-        <v>0.044</v>
+        <v>0.035</v>
       </c>
       <c r="G3">
-        <v>0.6562636721598366</v>
+        <v>0.6895775393987552</v>
       </c>
       <c r="H3">
-        <v>0.5215108648096836</v>
+        <v>0.5628393590252947</v>
       </c>
       <c r="I3">
-        <v>0.5338497112988363</v>
+        <v>0.538869023970335</v>
       </c>
       <c r="J3">
-        <v>0.440558444219602</v>
+        <v>0.4454387414260278</v>
       </c>
       <c r="K3">
-        <v>299.5</v>
+        <v>338.4</v>
       </c>
       <c r="L3">
-        <v>0.4367799329152691</v>
+        <v>0.4481525625744934</v>
       </c>
       <c r="M3">
-        <v>294.87</v>
+        <v>242.6</v>
       </c>
       <c r="N3">
-        <v>0.04179588944011339</v>
+        <v>0.03228167289856422</v>
       </c>
       <c r="O3">
-        <v>0.9845409015025042</v>
+        <v>0.7169030732860521</v>
       </c>
       <c r="P3">
-        <v>290.2</v>
+        <v>230.4</v>
       </c>
       <c r="Q3">
-        <v>0.04113394755492558</v>
+        <v>0.03065827467365704</v>
       </c>
       <c r="R3">
-        <v>0.9689482470784641</v>
+        <v>0.6808510638297873</v>
       </c>
       <c r="S3">
-        <v>4.670000000000016</v>
+        <v>12.19999999999999</v>
       </c>
       <c r="T3">
-        <v>0.01583748770644696</v>
+        <v>0.05028854080791421</v>
       </c>
       <c r="U3">
-        <v>568.6</v>
+        <v>650.9</v>
       </c>
       <c r="V3">
-        <v>0.08059532246633594</v>
+        <v>0.08661228726164655</v>
       </c>
       <c r="W3">
-        <v>0.432615917954644</v>
+        <v>0.4197469610518481</v>
       </c>
       <c r="X3">
-        <v>0.0270955519262388</v>
+        <v>0.01729207826322889</v>
       </c>
       <c r="Y3">
-        <v>0.4055203660284052</v>
+        <v>0.4024548827886192</v>
       </c>
       <c r="Z3">
-        <v>9.938219146630409</v>
+        <v>3.014371257485029</v>
       </c>
       <c r="AA3">
-        <v>4.378366365552953</v>
+        <v>1.342717739124924</v>
       </c>
       <c r="AB3">
-        <v>0.0270292012434165</v>
+        <v>0.01724303258339529</v>
       </c>
       <c r="AC3">
-        <v>4.351337164309537</v>
+        <v>1.325474706541529</v>
       </c>
       <c r="AD3">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="AE3">
-        <v>56.19626481193961</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>129.1962648119396</v>
+        <v>282</v>
       </c>
       <c r="AG3">
-        <v>-439.4037351880604</v>
+        <v>-368.9</v>
       </c>
       <c r="AH3">
-        <v>0.01798339856675973</v>
+        <v>0.03616729296789832</v>
       </c>
       <c r="AI3">
-        <v>0.1367161645211905</v>
+        <v>0.2393684746625923</v>
       </c>
       <c r="AJ3">
-        <v>-0.06641936986469825</v>
+        <v>-0.05162184097842209</v>
       </c>
       <c r="AK3">
-        <v>-1.167396640898128</v>
+        <v>-0.6997344461305006</v>
       </c>
       <c r="AL3">
-        <v>0.466</v>
+        <v>2.07</v>
       </c>
       <c r="AM3">
-        <v>-8.824</v>
+        <v>-7.74</v>
       </c>
       <c r="AN3">
-        <v>0.1833710123084652</v>
+        <v>0.6635294117647059</v>
       </c>
       <c r="AO3">
-        <v>760.0858369098712</v>
+        <v>196.5700483091788</v>
       </c>
       <c r="AP3">
-        <v>-1.103752160733636</v>
+        <v>-0.868</v>
       </c>
       <c r="AQ3">
-        <v>-40.14052583862194</v>
+        <v>-52.57105943152455</v>
       </c>
     </row>
     <row r="4">
@@ -856,7 +856,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>First Ship Lease Trust (SGX:D8DU)</t>
+          <t>8I Holdings Limited (ASX:8IH)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -865,34 +865,37 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.0551</v>
+        <v>-0.06900000000000001</v>
+      </c>
+      <c r="E4">
+        <v>-0.278</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-0.1636904761904762</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>-0.1744047619047619</v>
       </c>
       <c r="I4">
-        <v>0.2291066282420749</v>
+        <v>0.2845238095238095</v>
       </c>
       <c r="J4">
-        <v>0.2291066282420749</v>
+        <v>0.2501044330775788</v>
       </c>
       <c r="K4">
-        <v>-11.9</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>-0.1714697406340057</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>0.045</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.0009803921568627451</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -901,73 +904,82 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.045</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>50.2</v>
+        <v>17.3</v>
       </c>
       <c r="V4">
-        <v>0.5267576075550893</v>
+        <v>0.3769063180827887</v>
       </c>
       <c r="W4">
-        <v>-0.06846950517836593</v>
+        <v>0.1345291479820628</v>
       </c>
       <c r="X4">
-        <v>0.03217265171715423</v>
+        <v>0.01710464028486735</v>
       </c>
       <c r="Y4">
-        <v>-0.1006421568955202</v>
+        <v>0.1174245076971954</v>
       </c>
       <c r="Z4">
-        <v>0.2552408973887458</v>
+        <v>1.160220994475138</v>
       </c>
       <c r="AA4">
-        <v>0.05847738139021699</v>
+        <v>0.2901764140679092</v>
       </c>
       <c r="AB4">
-        <v>0.03048406923630696</v>
+        <v>0.01716934423842306</v>
       </c>
       <c r="AC4">
-        <v>0.02799331215391002</v>
+        <v>0.2730070698294861</v>
       </c>
       <c r="AD4">
-        <v>76.7</v>
+        <v>0.385</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>76.7</v>
+        <v>0.385</v>
       </c>
       <c r="AG4">
-        <v>26.5</v>
+        <v>-16.915</v>
       </c>
       <c r="AH4">
-        <v>0.4459302325581396</v>
+        <v>0.008318029599222211</v>
       </c>
       <c r="AI4">
-        <v>0.2777978993118435</v>
+        <v>0.01426718547341115</v>
       </c>
       <c r="AJ4">
-        <v>0.2175697865353038</v>
+        <v>-0.5835777126099707</v>
       </c>
       <c r="AK4">
-        <v>0.1173085436033643</v>
+        <v>-1.746515229736706</v>
       </c>
       <c r="AL4">
-        <v>7.22</v>
+        <v>0.045</v>
       </c>
       <c r="AM4">
-        <v>6.995</v>
+        <v>0.045</v>
+      </c>
+      <c r="AN4">
+        <v>0.07715430861723446</v>
       </c>
       <c r="AO4">
-        <v>2.202216066481995</v>
+        <v>106.2222222222222</v>
+      </c>
+      <c r="AP4">
+        <v>-3.389779559118236</v>
       </c>
       <c r="AQ4">
-        <v>2.273052180128663</v>
+        <v>106.2222222222222</v>
       </c>
     </row>
     <row r="5">
@@ -987,46 +999,46 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.101</v>
+        <v>-0.0475</v>
       </c>
       <c r="E5">
-        <v>0.232</v>
+        <v>0.234</v>
       </c>
       <c r="G5">
-        <v>0.1200252684775742</v>
+        <v>0.1484230055658627</v>
       </c>
       <c r="H5">
-        <v>0.1200252684775742</v>
+        <v>0.1484230055658627</v>
       </c>
       <c r="I5">
-        <v>0.1312646607982461</v>
+        <v>0.1390579488538672</v>
       </c>
       <c r="J5">
-        <v>0.1143208040727582</v>
+        <v>0.1158413173930477</v>
       </c>
       <c r="K5">
-        <v>16.7</v>
+        <v>18.6</v>
       </c>
       <c r="L5">
-        <v>0.1054958938723942</v>
+        <v>0.1150278293135436</v>
       </c>
       <c r="M5">
-        <v>0.851</v>
+        <v>0.844</v>
       </c>
       <c r="N5">
-        <v>0.006456752655538694</v>
+        <v>0.005808671713695801</v>
       </c>
       <c r="O5">
-        <v>0.05095808383233533</v>
+        <v>0.0453763440860215</v>
       </c>
       <c r="P5">
-        <v>0.851</v>
+        <v>0.844</v>
       </c>
       <c r="Q5">
-        <v>0.006456752655538694</v>
+        <v>0.005808671713695801</v>
       </c>
       <c r="R5">
-        <v>0.05095808383233533</v>
+        <v>0.0453763440860215</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1035,73 +1047,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>3.67</v>
+        <v>15</v>
       </c>
       <c r="V5">
-        <v>0.02784522003034901</v>
+        <v>0.1032346868547832</v>
       </c>
       <c r="W5">
-        <v>0.1215429403202329</v>
+        <v>0.1226912928759895</v>
       </c>
       <c r="X5">
-        <v>0.03777700439136461</v>
+        <v>0.02706229481099465</v>
       </c>
       <c r="Y5">
-        <v>0.08376593592886827</v>
+        <v>0.09562899806499481</v>
       </c>
       <c r="Z5">
-        <v>0.4746284826373946</v>
+        <v>0.4603602646710954</v>
       </c>
       <c r="AA5">
-        <v>0.05425990977094013</v>
+        <v>0.05332873953491178</v>
       </c>
       <c r="AB5">
-        <v>0.02878231779939044</v>
+        <v>0.0202885434785362</v>
       </c>
       <c r="AC5">
-        <v>0.02547759197154969</v>
+        <v>0.03304019605637559</v>
       </c>
       <c r="AD5">
-        <v>214.8</v>
+        <v>225.9</v>
       </c>
       <c r="AE5">
-        <v>5.704020978188154</v>
+        <v>0.2266483516483516</v>
       </c>
       <c r="AF5">
-        <v>220.5040209781882</v>
+        <v>226.1266483516484</v>
       </c>
       <c r="AG5">
-        <v>216.8340209781882</v>
+        <v>211.1266483516484</v>
       </c>
       <c r="AH5">
-        <v>0.6258912979929911</v>
+        <v>0.6088056668932457</v>
       </c>
       <c r="AI5">
-        <v>0.5873778879715301</v>
+        <v>0.583211521088339</v>
       </c>
       <c r="AJ5">
-        <v>0.6219531311654581</v>
+        <v>0.5923424899009012</v>
       </c>
       <c r="AK5">
-        <v>0.5833042141464666</v>
+        <v>0.5664382981075753</v>
       </c>
       <c r="AL5">
-        <v>3.81</v>
+        <v>3.01</v>
       </c>
       <c r="AM5">
-        <v>3.288</v>
+        <v>2.394</v>
       </c>
       <c r="AN5">
-        <v>9.250645994832043</v>
+        <v>9.479249716755486</v>
       </c>
       <c r="AO5">
-        <v>5.091863517060367</v>
+        <v>7.408637873754153</v>
       </c>
       <c r="AP5">
-        <v>9.338243797510259</v>
+        <v>8.85932811680787</v>
       </c>
       <c r="AQ5">
-        <v>5.900243309002432</v>
+        <v>9.314954051796159</v>
       </c>
     </row>
     <row r="6">
@@ -1112,7 +1124,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hong Leong Finance Limited (SGX:S41)</t>
+          <t>Net Pacific Financial Holdings Limited (Catalist:5QY)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1121,10 +1133,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.06480000000000001</v>
-      </c>
-      <c r="E6">
-        <v>0.112</v>
+        <v>-0.292</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1133,91 +1142,88 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01248608148224758</v>
+        <v>0.007113669104411054</v>
       </c>
       <c r="J6">
-        <v>0.01039336366351317</v>
+        <v>0.007113669104411054</v>
       </c>
       <c r="K6">
-        <v>74</v>
+        <v>-1.51</v>
       </c>
       <c r="L6">
-        <v>0.4731457800511509</v>
+        <v>-2.223858615611193</v>
       </c>
       <c r="M6">
-        <v>48.4</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.0544799639801891</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>0.654054054054054</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>48.4</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.0544799639801891</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>0.654054054054054</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
-        <v>679.3</v>
+        <v>4.55</v>
       </c>
       <c r="V6">
-        <v>0.764633048176497</v>
+        <v>0.5449101796407185</v>
       </c>
       <c r="W6">
-        <v>0.0547296797574144</v>
+        <v>-0.1006666666666667</v>
       </c>
       <c r="X6">
-        <v>0.02731583688447048</v>
+        <v>0.01707752970460927</v>
       </c>
       <c r="Y6">
-        <v>0.02741384287294392</v>
+        <v>-0.1177441963712759</v>
       </c>
       <c r="Z6">
-        <v>0.384099758949682</v>
+        <v>0.06180678382051601</v>
       </c>
       <c r="AA6">
-        <v>0.003992088477831794</v>
+        <v>0.0004396730085070178</v>
       </c>
       <c r="AB6">
-        <v>0.02712102837268513</v>
+        <v>0.01709555293396333</v>
       </c>
       <c r="AC6">
-        <v>-0.02312893989485334</v>
+        <v>-0.01665587992545631</v>
       </c>
       <c r="AD6">
-        <v>33.5</v>
+        <v>0.029</v>
       </c>
       <c r="AE6">
-        <v>13.08588428088239</v>
+        <v>0.005849093390524468</v>
       </c>
       <c r="AF6">
-        <v>46.58588428088239</v>
+        <v>0.03484909339052447</v>
       </c>
       <c r="AG6">
-        <v>-632.7141157191176</v>
+        <v>-4.515150906609476</v>
       </c>
       <c r="AH6">
-        <v>0.04982522737946209</v>
+        <v>0.004156198042728611</v>
       </c>
       <c r="AI6">
-        <v>0.03301888891221479</v>
+        <v>0.002593932626133404</v>
       </c>
       <c r="AJ6">
-        <v>-2.474575855052103</v>
+        <v>-1.177399891534578</v>
       </c>
       <c r="AK6">
-        <v>-0.8648528208564993</v>
+        <v>-0.5081854355825036</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1226,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>7.330415754923413</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="AP6">
-        <v>-138.4494782755181</v>
+        <v>-752.5251511015792</v>
       </c>
     </row>
     <row r="7">
@@ -1240,7 +1246,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Singapura Finance Ltd. (SGX:S23)</t>
+          <t>Hong Leong Finance Limited (SGX:S41)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1248,6 +1254,12 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D7">
+        <v>0.0227</v>
+      </c>
+      <c r="E7">
+        <v>0.0641</v>
+      </c>
       <c r="G7">
         <v>0</v>
       </c>
@@ -1255,34 +1267,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.009067738865781374</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.007741340893393141</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>6.42</v>
+        <v>62.5</v>
       </c>
       <c r="L7">
-        <v>0.3844311377245509</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="M7">
-        <v>2.29</v>
+        <v>16</v>
       </c>
       <c r="N7">
-        <v>0.02193486590038314</v>
+        <v>0.01977017175336711</v>
       </c>
       <c r="O7">
-        <v>0.3566978193146417</v>
+        <v>0.256</v>
       </c>
       <c r="P7">
-        <v>2.29</v>
+        <v>16</v>
       </c>
       <c r="Q7">
-        <v>0.02193486590038314</v>
+        <v>0.01977017175336711</v>
       </c>
       <c r="R7">
-        <v>0.3566978193146417</v>
+        <v>0.256</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1291,67 +1303,61 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>59.3</v>
+        <v>612.3</v>
       </c>
       <c r="V7">
-        <v>0.5680076628352489</v>
+        <v>0.7565797602866675</v>
       </c>
       <c r="W7">
-        <v>0.03440514469453376</v>
+        <v>0.04491555874955085</v>
       </c>
       <c r="X7">
-        <v>0.0270353279194618</v>
+        <v>0.01708001255734852</v>
       </c>
       <c r="Y7">
-        <v>0.007369816775071959</v>
+        <v>0.02783554619220233</v>
       </c>
       <c r="Z7">
-        <v>0.1413064660010731</v>
+        <v>0.1754734472255331</v>
       </c>
       <c r="AA7">
-        <v>0.001093901523754975</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.02700301529010109</v>
+        <v>0.01707482011176295</v>
       </c>
       <c r="AC7">
-        <v>-0.02590911376634611</v>
+        <v>-0.01707482011176295</v>
       </c>
       <c r="AD7">
-        <v>0.755</v>
+        <v>3.69</v>
       </c>
       <c r="AE7">
-        <v>0.1828438047072554</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.9378438047072554</v>
+        <v>3.69</v>
       </c>
       <c r="AG7">
-        <v>-58.36215619529274</v>
+        <v>-608.6099999999999</v>
       </c>
       <c r="AH7">
-        <v>0.008903199181160244</v>
+        <v>0.0045388012152671</v>
       </c>
       <c r="AI7">
-        <v>0.004982227727173969</v>
+        <v>0.002691485714702514</v>
       </c>
       <c r="AJ7">
-        <v>-1.26769960041711</v>
+        <v>-3.032587572873585</v>
       </c>
       <c r="AK7">
-        <v>-0.4526379104313986</v>
+        <v>-0.8021853457934068</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>4.01595744680851</v>
-      </c>
-      <c r="AP7">
-        <v>-310.4370010387912</v>
       </c>
     </row>
     <row r="8">
@@ -1362,7 +1368,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Net Pacific Financial Holdings Limited (Catalist:5QY)</t>
+          <t>Singapura Finance Ltd (SGX:S23)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1371,106 +1377,103 @@
         </is>
       </c>
       <c r="G8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>-0.07081769935435892</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>-0.07081769935435892</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>-5.3</v>
+        <v>2.74</v>
       </c>
       <c r="L8">
-        <v>46.49122807017544</v>
+        <v>0.2227642276422764</v>
       </c>
       <c r="M8">
-        <v>-0</v>
+        <v>2.28</v>
       </c>
       <c r="N8">
-        <v>-0</v>
+        <v>0.02235294117647059</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8321167883211678</v>
       </c>
       <c r="P8">
-        <v>-0</v>
+        <v>2.28</v>
       </c>
       <c r="Q8">
-        <v>-0</v>
+        <v>0.02235294117647059</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.8321167883211678</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
       <c r="U8">
-        <v>4.02</v>
+        <v>159</v>
       </c>
       <c r="V8">
-        <v>0.4938574938574938</v>
+        <v>1.558823529411765</v>
       </c>
       <c r="W8">
-        <v>-0.2572815533980582</v>
+        <v>0.01444385872430153</v>
       </c>
       <c r="X8">
-        <v>0.02698497967452265</v>
+        <v>0.01708044971706802</v>
       </c>
       <c r="Y8">
-        <v>-0.2842665330725809</v>
+        <v>-0.00263659099276649</v>
       </c>
       <c r="Z8">
-        <v>-0.006612669421293631</v>
+        <v>0.09836616204025818</v>
       </c>
       <c r="AA8">
-        <v>0.000468294035006935</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.02699036429211068</v>
+        <v>0.0170751782256708</v>
       </c>
       <c r="AC8">
-        <v>-0.02652207025710374</v>
+        <v>-0.0170751782256708</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.472</v>
       </c>
       <c r="AE8">
-        <v>0.009633911368015413</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.009633911368015413</v>
+        <v>0.472</v>
       </c>
       <c r="AG8">
-        <v>-4.010366088631984</v>
+        <v>-158.528</v>
       </c>
       <c r="AH8">
-        <v>0.001182128114316517</v>
+        <v>0.004606136310406746</v>
       </c>
       <c r="AI8">
-        <v>0.0006418485237483953</v>
+        <v>0.002550358779285899</v>
       </c>
       <c r="AJ8">
-        <v>-0.9711190325109174</v>
+        <v>2.804415510897255</v>
       </c>
       <c r="AK8">
-        <v>-0.3649226280853211</v>
+        <v>-6.080392758514881</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>-401.0366088631984</v>
       </c>
     </row>
     <row r="9">
@@ -1490,10 +1493,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0767</v>
+        <v>0.0584</v>
       </c>
       <c r="E9">
-        <v>0.08929999999999999</v>
+        <v>0.102</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1508,28 +1511,28 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.3</v>
+        <v>13.3</v>
       </c>
       <c r="L9">
-        <v>0.4146341463414634</v>
+        <v>0.392330383480826</v>
       </c>
       <c r="M9">
-        <v>7.98</v>
+        <v>6.93</v>
       </c>
       <c r="N9">
-        <v>0.04761336515513127</v>
+        <v>0.0440279542566709</v>
       </c>
       <c r="O9">
-        <v>0.5215686274509804</v>
+        <v>0.5210526315789473</v>
       </c>
       <c r="P9">
-        <v>7.98</v>
+        <v>6.93</v>
       </c>
       <c r="Q9">
-        <v>0.04761336515513127</v>
+        <v>0.0440279542566709</v>
       </c>
       <c r="R9">
-        <v>0.5215686274509804</v>
+        <v>0.5210526315789473</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1538,55 +1541,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>171.1</v>
+        <v>270.1</v>
       </c>
       <c r="V9">
-        <v>1.020883054892601</v>
+        <v>1.716010165184244</v>
       </c>
       <c r="W9">
-        <v>0.05909617612977985</v>
+        <v>0.05003762227238525</v>
       </c>
       <c r="X9">
-        <v>0.02726312453318498</v>
+        <v>0.02036939066861835</v>
       </c>
       <c r="Y9">
-        <v>0.03183305159659486</v>
+        <v>0.0296682316037669</v>
       </c>
       <c r="Z9">
-        <v>0.5697081982399262</v>
+        <v>0.3319623971797884</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.02709960114136558</v>
+        <v>0.01886062569673315</v>
       </c>
       <c r="AC9">
-        <v>-0.02709960114136558</v>
+        <v>-0.01886062569673315</v>
       </c>
       <c r="AD9">
-        <v>7.42</v>
+        <v>81.2</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>7.42</v>
+        <v>81.2</v>
       </c>
       <c r="AG9">
-        <v>-163.68</v>
+        <v>-188.9</v>
       </c>
       <c r="AH9">
-        <v>0.04239515483944693</v>
+        <v>0.3403185247275775</v>
       </c>
       <c r="AI9">
-        <v>0.0271576019325086</v>
+        <v>0.2253052164261931</v>
       </c>
       <c r="AJ9">
-        <v>-41.75510204081646</v>
+        <v>5.996825396825392</v>
       </c>
       <c r="AK9">
-        <v>-1.602820211515864</v>
+        <v>-2.091915836101884</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1612,7 +1615,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.175</v>
+        <v>0.181</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1621,34 +1624,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.002031138454792657</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.001774525873227335</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>17.7</v>
+        <v>5.02</v>
       </c>
       <c r="L10">
-        <v>0.5496894409937888</v>
+        <v>0.1767605633802817</v>
       </c>
       <c r="M10">
-        <v>1.49</v>
+        <v>2.1</v>
       </c>
       <c r="N10">
-        <v>0.02317262830482115</v>
+        <v>0.03992395437262358</v>
       </c>
       <c r="O10">
-        <v>0.08418079096045199</v>
+        <v>0.4183266932270917</v>
       </c>
       <c r="P10">
-        <v>1.49</v>
+        <v>2.1</v>
       </c>
       <c r="Q10">
-        <v>0.02317262830482115</v>
+        <v>0.03992395437262358</v>
       </c>
       <c r="R10">
-        <v>0.08418079096045199</v>
+        <v>0.4183266932270917</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1657,67 +1660,61 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>36.2</v>
+        <v>42.9</v>
       </c>
       <c r="V10">
-        <v>0.56298600311042</v>
+        <v>0.8155893536121672</v>
       </c>
       <c r="W10">
-        <v>0.1581769436997319</v>
+        <v>0.0390357698289269</v>
       </c>
       <c r="X10">
-        <v>0.04610478517223311</v>
+        <v>0.03835562334973781</v>
       </c>
       <c r="Y10">
-        <v>0.1120721585274988</v>
+        <v>0.0006801464791890977</v>
       </c>
       <c r="Z10">
-        <v>0.1085168957507283</v>
+        <v>0.09769521843825248</v>
       </c>
       <c r="AA10">
-        <v>0.0001925660391919808</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.03285692919929795</v>
+        <v>0.02113561282273461</v>
       </c>
       <c r="AC10">
-        <v>-0.03266436316010597</v>
+        <v>-0.02113561282273461</v>
       </c>
       <c r="AD10">
-        <v>188.8</v>
+        <v>174.2</v>
       </c>
       <c r="AE10">
-        <v>1.727986708778382</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>190.5279867087784</v>
+        <v>174.2</v>
       </c>
       <c r="AG10">
-        <v>154.3279867087784</v>
+        <v>131.3</v>
       </c>
       <c r="AH10">
-        <v>0.747672927018479</v>
+        <v>0.7680776014109347</v>
       </c>
       <c r="AI10">
-        <v>0.5736583315269969</v>
+        <v>0.5523145212428662</v>
       </c>
       <c r="AJ10">
-        <v>0.7058930973661195</v>
+        <v>0.7139749864056553</v>
       </c>
       <c r="AK10">
-        <v>0.5215052095111639</v>
+        <v>0.481834862385321</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>459.367396593674</v>
-      </c>
-      <c r="AP10">
-        <v>375.4938849362005</v>
       </c>
     </row>
   </sheetData>
